--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1132936666666667</v>
+        <v>0.1266753333333333</v>
       </c>
       <c r="H2">
-        <v>0.339881</v>
+        <v>0.380026</v>
       </c>
       <c r="I2">
-        <v>0.003561272005960765</v>
+        <v>0.003969958931547584</v>
       </c>
       <c r="J2">
-        <v>0.003622822250599326</v>
+        <v>0.004041902127696777</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>15.65934698072622</v>
+        <v>15.445363655738</v>
       </c>
       <c r="R2">
-        <v>140.934122826536</v>
+        <v>139.008272901642</v>
       </c>
       <c r="S2">
-        <v>0.0008010097226250231</v>
+        <v>0.0009060367913748018</v>
       </c>
       <c r="T2">
-        <v>0.0008972277976451611</v>
+        <v>0.0009780273159781428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1132936666666667</v>
+        <v>0.1266753333333333</v>
       </c>
       <c r="H3">
-        <v>0.339881</v>
+        <v>0.380026</v>
       </c>
       <c r="I3">
-        <v>0.003561272005960765</v>
+        <v>0.003969958931547584</v>
       </c>
       <c r="J3">
-        <v>0.003622822250599326</v>
+        <v>0.004041902127696777</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>16.75775679824334</v>
+        <v>18.73709705752666</v>
       </c>
       <c r="R3">
-        <v>150.81981118419</v>
+        <v>168.63387351774</v>
       </c>
       <c r="S3">
-        <v>0.0008571957784254916</v>
+        <v>0.00109913237888529</v>
       </c>
       <c r="T3">
-        <v>0.0009601629776814487</v>
+        <v>0.001186465605656803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1132936666666667</v>
+        <v>0.1266753333333333</v>
       </c>
       <c r="H4">
-        <v>0.339881</v>
+        <v>0.380026</v>
       </c>
       <c r="I4">
-        <v>0.003561272005960765</v>
+        <v>0.003969958931547584</v>
       </c>
       <c r="J4">
-        <v>0.003622822250599326</v>
+        <v>0.004041902127696777</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>8.414617150623554</v>
+        <v>10.57801982528978</v>
       </c>
       <c r="R4">
-        <v>75.73155435561199</v>
+        <v>95.20217842760799</v>
       </c>
       <c r="S4">
-        <v>0.0004304260042332972</v>
+        <v>0.0006205146965279823</v>
       </c>
       <c r="T4">
-        <v>0.0004821291988340014</v>
+        <v>0.0006698186309293097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1132936666666667</v>
+        <v>0.1266753333333333</v>
       </c>
       <c r="H5">
-        <v>0.339881</v>
+        <v>0.380026</v>
       </c>
       <c r="I5">
-        <v>0.003561272005960765</v>
+        <v>0.003969958931547584</v>
       </c>
       <c r="J5">
-        <v>0.003622822250599326</v>
+        <v>0.004041902127696777</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>19.1756436648785</v>
+        <v>11.53612784334167</v>
       </c>
       <c r="R5">
-        <v>115.053861989271</v>
+        <v>69.21676706005</v>
       </c>
       <c r="S5">
-        <v>0.0009808759606684616</v>
+        <v>0.0006767180423225444</v>
       </c>
       <c r="T5">
-        <v>0.0007324664966358821</v>
+        <v>0.0004869917990875592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1132936666666667</v>
+        <v>0.1266753333333333</v>
       </c>
       <c r="H6">
-        <v>0.339881</v>
+        <v>0.380026</v>
       </c>
       <c r="I6">
-        <v>0.003561272005960765</v>
+        <v>0.003969958931547584</v>
       </c>
       <c r="J6">
-        <v>0.003622822250599326</v>
+        <v>0.004041902127696777</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>9.613755423060113</v>
+        <v>11.37995837546</v>
       </c>
       <c r="R6">
-        <v>86.52379880754101</v>
+        <v>102.41962537914</v>
       </c>
       <c r="S6">
-        <v>0.0004917645400084916</v>
+        <v>0.0006675570224369653</v>
       </c>
       <c r="T6">
-        <v>0.0005508357798028317</v>
+        <v>0.0007205987760449614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>89.905203</v>
       </c>
       <c r="I7">
-        <v>0.9420264228777712</v>
+        <v>0.9391988012463586</v>
       </c>
       <c r="J7">
-        <v>0.9583076720177039</v>
+        <v>0.9562188673846281</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>4142.204975122552</v>
+        <v>3654.009343776339</v>
       </c>
       <c r="R7">
-        <v>37279.84477610297</v>
+        <v>32886.08409398705</v>
       </c>
       <c r="S7">
-        <v>0.2118828110944018</v>
+        <v>0.2143469700863104</v>
       </c>
       <c r="T7">
-        <v>0.2373343825766405</v>
+        <v>0.2313782330223724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>89.905203</v>
       </c>
       <c r="I8">
-        <v>0.9420264228777712</v>
+        <v>0.9391988012463586</v>
       </c>
       <c r="J8">
-        <v>0.9583076720177039</v>
+        <v>0.9562188673846281</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>4432.75595508633</v>
       </c>
       <c r="R8">
-        <v>39894.80359577698</v>
+        <v>39894.80359577697</v>
       </c>
       <c r="S8">
-        <v>0.2267451268828997</v>
+        <v>0.2600288392045673</v>
       </c>
       <c r="T8">
-        <v>0.2539819743425938</v>
+        <v>0.2806898241938522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>89.905203</v>
       </c>
       <c r="I9">
-        <v>0.9420264228777712</v>
+        <v>0.9391988012463586</v>
       </c>
       <c r="J9">
-        <v>0.9583076720177039</v>
+        <v>0.9562188673846281</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>2225.831579564884</v>
+        <v>2502.510406474036</v>
       </c>
       <c r="R9">
-        <v>20032.48421608395</v>
+        <v>22522.59365826632</v>
       </c>
       <c r="S9">
-        <v>0.1138561357859764</v>
+        <v>0.1467991657303228</v>
       </c>
       <c r="T9">
-        <v>0.1275326467010461</v>
+        <v>0.1584633156333558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>89.905203</v>
       </c>
       <c r="I10">
-        <v>0.9420264228777712</v>
+        <v>0.9391988012463586</v>
       </c>
       <c r="J10">
-        <v>0.9583076720177039</v>
+        <v>0.9562188673846281</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>5072.334541638296</v>
+        <v>2729.176202653463</v>
       </c>
       <c r="R10">
-        <v>30434.00724982977</v>
+        <v>16375.05721592078</v>
       </c>
       <c r="S10">
-        <v>0.2594609653429231</v>
+        <v>0.1600955539062353</v>
       </c>
       <c r="T10">
-        <v>0.1937517809784831</v>
+        <v>0.1152107923044798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>89.905203</v>
       </c>
       <c r="I11">
-        <v>0.9420264228777712</v>
+        <v>0.9391988012463586</v>
       </c>
       <c r="J11">
-        <v>0.9583076720177039</v>
+        <v>0.9562188673846281</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>2543.027215121087</v>
+        <v>2692.23018392763</v>
       </c>
       <c r="R11">
-        <v>22887.24493608979</v>
+        <v>24230.07165534867</v>
       </c>
       <c r="S11">
-        <v>0.1300813837715702</v>
+        <v>0.1579282723189227</v>
       </c>
       <c r="T11">
-        <v>0.1457068874189404</v>
+        <v>0.1704767022305679</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>0.328646</v>
       </c>
       <c r="I12">
-        <v>0.003443551712719986</v>
+        <v>0.003433215419517052</v>
       </c>
       <c r="J12">
-        <v>0.003503067371728534</v>
+        <v>0.003495431803768782</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>15.14171650615289</v>
+        <v>13.357130785798</v>
       </c>
       <c r="R12">
-        <v>136.275448555376</v>
+        <v>120.214177072182</v>
       </c>
       <c r="S12">
-        <v>0.000774531795839789</v>
+        <v>0.0007835394613478107</v>
       </c>
       <c r="T12">
-        <v>0.0008675693162750834</v>
+        <v>0.0008457967751863103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>0.328646</v>
       </c>
       <c r="I13">
-        <v>0.003443551712719986</v>
+        <v>0.003433215419517052</v>
       </c>
       <c r="J13">
-        <v>0.003503067371728534</v>
+        <v>0.003495431803768782</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
         <v>16.20381763239333</v>
@@ -1258,10 +1258,10 @@
         <v>145.83435869154</v>
       </c>
       <c r="S13">
-        <v>0.000828860582958224</v>
+        <v>0.0009505282790944169</v>
       </c>
       <c r="T13">
-        <v>0.0009284241306901456</v>
+        <v>0.001026053942195234</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1290,10 +1290,10 @@
         <v>0.328646</v>
       </c>
       <c r="I14">
-        <v>0.003443551712719986</v>
+        <v>0.003433215419517052</v>
       </c>
       <c r="J14">
-        <v>0.003503067371728534</v>
+        <v>0.003495431803768782</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>8.136466198710222</v>
+        <v>9.147858050507557</v>
       </c>
       <c r="R14">
-        <v>73.228195788392</v>
+        <v>82.33072245456799</v>
       </c>
       <c r="S14">
-        <v>0.0004161979769014926</v>
+        <v>0.0005366203179654426</v>
       </c>
       <c r="T14">
-        <v>0.0004661920868774637</v>
+        <v>0.0005792582975385736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1352,10 +1352,10 @@
         <v>0.328646</v>
       </c>
       <c r="I15">
-        <v>0.003443551712719986</v>
+        <v>0.003433215419517052</v>
       </c>
       <c r="J15">
-        <v>0.003503067371728534</v>
+        <v>0.003495431803768782</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>18.541779587231</v>
+        <v>9.976428642258334</v>
       </c>
       <c r="R15">
-        <v>111.250677523386</v>
+        <v>59.85857185355</v>
       </c>
       <c r="S15">
-        <v>0.0009484524317918544</v>
+        <v>0.0005852248997098487</v>
       </c>
       <c r="T15">
-        <v>0.0007082543132843441</v>
+        <v>0.0004211498865944173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1414,10 +1414,10 @@
         <v>0.328646</v>
       </c>
       <c r="I16">
-        <v>0.003443551712719986</v>
+        <v>0.003433215419517052</v>
       </c>
       <c r="J16">
-        <v>0.003503067371728534</v>
+        <v>0.003495431803768782</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>9.295966131578446</v>
+        <v>9.84137348566</v>
       </c>
       <c r="R16">
-        <v>83.66369518420601</v>
+        <v>88.57236137094</v>
       </c>
       <c r="S16">
-        <v>0.0004755089252286263</v>
+        <v>0.000577302461399533</v>
       </c>
       <c r="T16">
-        <v>0.0005326275246014972</v>
+        <v>0.0006231729022542469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.6214535</v>
+        <v>1.7038495</v>
       </c>
       <c r="H17">
-        <v>3.242907</v>
+        <v>3.407699</v>
       </c>
       <c r="I17">
-        <v>0.05096875340354803</v>
+        <v>0.05339802440257681</v>
       </c>
       <c r="J17">
-        <v>0.03456643835996807</v>
+        <v>0.03624379868390631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>224.115819680532</v>
+        <v>207.7482209807805</v>
       </c>
       <c r="R17">
-        <v>1344.694918083192</v>
+        <v>1246.489325884683</v>
       </c>
       <c r="S17">
-        <v>0.01146401256573071</v>
+        <v>0.01218666881186203</v>
       </c>
       <c r="T17">
-        <v>0.008560720680408956</v>
+        <v>0.008769986018407692</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.6214535</v>
+        <v>1.7038495</v>
       </c>
       <c r="H18">
-        <v>3.242907</v>
+        <v>3.407699</v>
       </c>
       <c r="I18">
-        <v>0.05096875340354803</v>
+        <v>0.05339802440257681</v>
       </c>
       <c r="J18">
-        <v>0.03456643835996807</v>
+        <v>0.03624379868390631</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>239.836208078655</v>
+        <v>252.023757213335</v>
       </c>
       <c r="R18">
-        <v>1439.01724847193</v>
+        <v>1512.14254328001</v>
       </c>
       <c r="S18">
-        <v>0.01226814468987591</v>
+        <v>0.01478390547644775</v>
       </c>
       <c r="T18">
-        <v>0.009161204190478472</v>
+        <v>0.0106390553749772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.6214535</v>
+        <v>1.7038495</v>
       </c>
       <c r="H19">
-        <v>3.242907</v>
+        <v>3.407699</v>
       </c>
       <c r="I19">
-        <v>0.05096875340354803</v>
+        <v>0.05339802440257681</v>
       </c>
       <c r="J19">
-        <v>0.03456643835996807</v>
+        <v>0.03624379868390631</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>120.429595329294</v>
+        <v>142.2799002461153</v>
       </c>
       <c r="R19">
-        <v>722.5775719757639</v>
+        <v>853.679401476692</v>
       </c>
       <c r="S19">
-        <v>0.00616023623905215</v>
+        <v>0.008346247273253839</v>
       </c>
       <c r="T19">
-        <v>0.004600139913096569</v>
+        <v>0.006006273988619669</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.6214535</v>
+        <v>1.7038495</v>
       </c>
       <c r="H20">
-        <v>3.242907</v>
+        <v>3.407699</v>
       </c>
       <c r="I20">
-        <v>0.05096875340354803</v>
+        <v>0.05339802440257681</v>
       </c>
       <c r="J20">
-        <v>0.03456643835996807</v>
+        <v>0.03624379868390631</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>274.4408884448093</v>
+        <v>155.1669542963938</v>
       </c>
       <c r="R20">
-        <v>1097.763553779237</v>
+        <v>620.667817185575</v>
       </c>
       <c r="S20">
-        <v>0.01403824950048758</v>
+        <v>0.0091022116754031</v>
       </c>
       <c r="T20">
-        <v>0.006988683478058434</v>
+        <v>0.004366862969267568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.6214535</v>
+        <v>1.7038495</v>
       </c>
       <c r="H21">
-        <v>3.242907</v>
+        <v>3.407699</v>
       </c>
       <c r="I21">
-        <v>0.05096875340354803</v>
+        <v>0.05339802440257681</v>
       </c>
       <c r="J21">
-        <v>0.03456643835996807</v>
+        <v>0.03624379868390631</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>137.5916045221545</v>
+        <v>153.066393257685</v>
       </c>
       <c r="R21">
-        <v>825.5496271329271</v>
+        <v>918.39835954611</v>
       </c>
       <c r="S21">
-        <v>0.007038110408401693</v>
+        <v>0.00897899116561008</v>
       </c>
       <c r="T21">
-        <v>0.005255690097925632</v>
+        <v>0.006461620332634186</v>
       </c>
     </row>
   </sheetData>
